--- a/EC1-ECG_Analysis/ecg_oversampling/safetyArtist/Quantitative Models/Random Faults (HW)/Markov Models.xlsx
+++ b/EC1-ECG_Analysis/ecg_oversampling/safetyArtist/Quantitative Models/Random Faults (HW)/Markov Models.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3825" yWindow="-75" windowWidth="18195" windowHeight="11310" activeTab="2"/>
+    <workbookView xWindow="3825" yWindow="-75" windowWidth="18195" windowHeight="11310" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sample Spreadsheet" sheetId="1" r:id="rId1"/>
     <sheet name="EC1 - 15 years" sheetId="41" r:id="rId2"/>
     <sheet name="EC1 - 15 yr. w. Prev. Maint. 2y" sheetId="46" r:id="rId3"/>
+    <sheet name="EC1 - 15 yr. w. Prev. Maint. 1y" sheetId="47" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -123,8 +124,44 @@
 </comments>
 </file>
 
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Antonio Vieira da Silva Neto</author>
+  </authors>
+  <commentList>
+    <comment ref="A15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Antonio Vieira da Silva Neto:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+0 - Optimistic
+1 - Normal
+2 - Pessimistic</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="33">
   <si>
     <t>,</t>
   </si>
@@ -967,8 +1004,67 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -997,63 +1093,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1073,14 +1118,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1416,21 +1453,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="51"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="41"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:13" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1438,23 +1475,23 @@
         <v>7</v>
       </c>
       <c r="B3" s="14"/>
-      <c r="E3" s="62" t="s">
+      <c r="E3" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="64"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="55"/>
     </row>
     <row r="4" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="15"/>
-      <c r="D4" s="59" t="s">
+      <c r="D4" s="50" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="8" t="s">
@@ -1483,11 +1520,11 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="42" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="15"/>
-      <c r="D5" s="60"/>
+      <c r="D5" s="51"/>
       <c r="E5" s="2">
         <v>1</v>
       </c>
@@ -1503,9 +1540,9 @@
       <c r="L5" s="6"/>
     </row>
     <row r="6" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="53"/>
+      <c r="A6" s="43"/>
       <c r="B6" s="15"/>
-      <c r="D6" s="60"/>
+      <c r="D6" s="51"/>
       <c r="E6" s="2">
         <v>2</v>
       </c>
@@ -1521,9 +1558,9 @@
       <c r="L6" s="6"/>
     </row>
     <row r="7" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="53"/>
+      <c r="A7" s="43"/>
       <c r="B7" s="15"/>
-      <c r="D7" s="60"/>
+      <c r="D7" s="51"/>
       <c r="E7" s="2">
         <v>3</v>
       </c>
@@ -1539,9 +1576,9 @@
       <c r="L7" s="6"/>
     </row>
     <row r="8" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="53"/>
+      <c r="A8" s="43"/>
       <c r="B8" s="15"/>
-      <c r="D8" s="60"/>
+      <c r="D8" s="51"/>
       <c r="E8" s="2">
         <v>4</v>
       </c>
@@ -1557,9 +1594,9 @@
       <c r="L8" s="6"/>
     </row>
     <row r="9" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="53"/>
+      <c r="A9" s="43"/>
       <c r="B9" s="15"/>
-      <c r="D9" s="60"/>
+      <c r="D9" s="51"/>
       <c r="E9" s="2">
         <v>5</v>
       </c>
@@ -1575,9 +1612,9 @@
       <c r="L9" s="6"/>
     </row>
     <row r="10" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="53"/>
+      <c r="A10" s="43"/>
       <c r="B10" s="15"/>
-      <c r="D10" s="60"/>
+      <c r="D10" s="51"/>
       <c r="E10" s="2">
         <v>6</v>
       </c>
@@ -1593,9 +1630,9 @@
       <c r="L10" s="6"/>
     </row>
     <row r="11" spans="1:13" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="54"/>
+      <c r="A11" s="44"/>
       <c r="B11" s="16"/>
-      <c r="D11" s="61"/>
+      <c r="D11" s="52"/>
       <c r="E11" s="3">
         <v>7</v>
       </c>
@@ -1612,13 +1649,13 @@
     </row>
     <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:13" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="55"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="58"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="49"/>
       <c r="G13" s="28" t="s">
         <v>18</v>
       </c>
@@ -1630,13 +1667,13 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="55"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="58"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="49"/>
       <c r="G14" s="24">
         <v>1</v>
       </c>
@@ -1644,15 +1681,15 @@
       <c r="I14" s="19"/>
     </row>
     <row r="15" spans="1:13" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="55"/>
-      <c r="C15" s="56" t="s">
+      <c r="B15" s="46"/>
+      <c r="C15" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="57"/>
-      <c r="E15" s="58"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="49"/>
       <c r="G15" s="24">
         <v>2</v>
       </c>
@@ -1660,13 +1697,13 @@
       <c r="I15" s="19"/>
     </row>
     <row r="16" spans="1:13" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="44" t="s">
+      <c r="A16" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="45"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="43"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="59"/>
       <c r="G16" s="24" t="s">
         <v>1</v>
       </c>
@@ -1674,13 +1711,13 @@
       <c r="I16" s="31"/>
     </row>
     <row r="17" spans="1:12" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="39" t="s">
+      <c r="A17" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="40"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="43"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="59"/>
       <c r="G17" s="24" t="s">
         <v>2</v>
       </c>
@@ -1688,13 +1725,13 @@
       <c r="I17" s="31"/>
     </row>
     <row r="18" spans="1:12" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="39" t="s">
+      <c r="A18" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="40"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="43"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="59"/>
       <c r="H18" s="17"/>
     </row>
     <row r="19" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1705,19 +1742,19 @@
       <c r="E19" s="22"/>
     </row>
     <row r="20" spans="1:12" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="46" t="s">
+      <c r="A20" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="47"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="48"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="63"/>
+      <c r="K20" s="64"/>
       <c r="L20" s="23"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -1747,6 +1784,13 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="17">
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="A20:K20"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:E17"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A5:A11"/>
     <mergeCell ref="A14:B14"/>
@@ -1757,13 +1801,6 @@
     <mergeCell ref="C13:E13"/>
     <mergeCell ref="D4:D11"/>
     <mergeCell ref="E3:L3"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="A20:K20"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:E17"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1779,7 +1816,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1797,17 +1834,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="51"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="41"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:9" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1817,12 +1854,12 @@
       <c r="B3" s="14">
         <v>4</v>
       </c>
-      <c r="E3" s="62" t="s">
+      <c r="E3" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
     </row>
     <row r="4" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
@@ -1831,7 +1868,7 @@
       <c r="B4" s="15">
         <v>1</v>
       </c>
-      <c r="D4" s="65" t="s">
+      <c r="D4" s="67" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="8" t="s">
@@ -1851,13 +1888,13 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="70" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="15">
         <v>1</v>
       </c>
-      <c r="D5" s="66"/>
+      <c r="D5" s="68"/>
       <c r="E5" s="2">
         <v>1</v>
       </c>
@@ -1875,11 +1912,11 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="68"/>
+      <c r="A6" s="70"/>
       <c r="B6" s="15">
         <v>2</v>
       </c>
-      <c r="D6" s="66"/>
+      <c r="D6" s="68"/>
       <c r="E6" s="2">
         <v>2</v>
       </c>
@@ -1897,9 +1934,9 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="68"/>
+      <c r="A7" s="70"/>
       <c r="B7" s="15"/>
-      <c r="D7" s="66"/>
+      <c r="D7" s="68"/>
       <c r="E7" s="2">
         <v>3</v>
       </c>
@@ -1917,9 +1954,9 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="69"/>
+      <c r="A8" s="71"/>
       <c r="B8" s="16"/>
-      <c r="D8" s="67"/>
+      <c r="D8" s="69"/>
       <c r="E8" s="2">
         <v>4</v>
       </c>
@@ -1938,16 +1975,16 @@
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:9" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="55"/>
-      <c r="C10" s="56">
+      <c r="B10" s="46"/>
+      <c r="C10" s="47">
         <f>15*8760</f>
         <v>131400</v>
       </c>
-      <c r="D10" s="57"/>
-      <c r="E10" s="58"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="49"/>
       <c r="G10" s="28" t="s">
         <v>18</v>
       </c>
@@ -1959,15 +1996,15 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="55"/>
-      <c r="C11" s="56">
+      <c r="B11" s="46"/>
+      <c r="C11" s="47">
         <v>0.5</v>
       </c>
-      <c r="D11" s="57"/>
-      <c r="E11" s="58"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="49"/>
       <c r="G11" s="34">
         <v>1</v>
       </c>
@@ -1975,19 +2012,19 @@
         <v>5.2398E-9</v>
       </c>
       <c r="I11" s="35">
-        <v>0</v>
+        <v>5.9523809523809521E-3</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="55"/>
-      <c r="C12" s="56" t="s">
+      <c r="B12" s="46"/>
+      <c r="C12" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="57"/>
-      <c r="E12" s="58"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="49"/>
       <c r="G12" s="36">
         <v>2</v>
       </c>
@@ -2000,15 +2037,15 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="44" t="s">
+      <c r="A13" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="45"/>
-      <c r="C13" s="41">
+      <c r="B13" s="61"/>
+      <c r="C13" s="57">
         <v>3</v>
       </c>
-      <c r="D13" s="42"/>
-      <c r="E13" s="43"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="59"/>
       <c r="G13" s="27">
         <v>3</v>
       </c>
@@ -2020,63 +2057,63 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="40"/>
-      <c r="C14" s="41">
+      <c r="B14" s="56"/>
+      <c r="C14" s="57">
         <v>0</v>
       </c>
-      <c r="D14" s="42"/>
-      <c r="E14" s="43"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="59"/>
     </row>
     <row r="15" spans="1:9" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="40"/>
-      <c r="C15" s="41">
-        <v>1</v>
-      </c>
-      <c r="D15" s="42"/>
-      <c r="E15" s="43"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="57">
+        <v>1</v>
+      </c>
+      <c r="D15" s="58"/>
+      <c r="E15" s="59"/>
       <c r="H15" s="17"/>
     </row>
     <row r="16" spans="1:9" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H16" s="17"/>
     </row>
     <row r="17" spans="1:9" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="46" t="s">
+      <c r="A17" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="70"/>
-      <c r="C17" s="70"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="70"/>
-      <c r="I17" s="71"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="D4:D8"/>
+    <mergeCell ref="A5:A8"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="C12:E12"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="C13:E13"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="D4:D8"/>
-    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="A17:I17"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <legacyDrawing r:id="rId1"/>
@@ -2087,8 +2124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2106,7 +2143,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="39" t="s">
         <v>25</v>
       </c>
       <c r="B1" s="72"/>
@@ -2127,12 +2164,12 @@
       <c r="B3" s="14">
         <v>4</v>
       </c>
-      <c r="E3" s="62" t="s">
+      <c r="E3" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
     </row>
     <row r="4" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
@@ -2141,7 +2178,7 @@
       <c r="B4" s="15">
         <v>1</v>
       </c>
-      <c r="D4" s="65" t="s">
+      <c r="D4" s="67" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="8" t="s">
@@ -2161,13 +2198,13 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="70" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="15">
         <v>1</v>
       </c>
-      <c r="D5" s="66"/>
+      <c r="D5" s="68"/>
       <c r="E5" s="2">
         <v>1</v>
       </c>
@@ -2185,11 +2222,11 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="68"/>
+      <c r="A6" s="70"/>
       <c r="B6" s="15">
         <v>2</v>
       </c>
-      <c r="D6" s="66"/>
+      <c r="D6" s="68"/>
       <c r="E6" s="2">
         <v>2</v>
       </c>
@@ -2207,9 +2244,9 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="68"/>
+      <c r="A7" s="70"/>
       <c r="B7" s="15"/>
-      <c r="D7" s="66"/>
+      <c r="D7" s="68"/>
       <c r="E7" s="2">
         <v>3</v>
       </c>
@@ -2227,9 +2264,9 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="69"/>
+      <c r="A8" s="71"/>
       <c r="B8" s="16"/>
-      <c r="D8" s="67"/>
+      <c r="D8" s="69"/>
       <c r="E8" s="2">
         <v>4</v>
       </c>
@@ -2248,16 +2285,16 @@
     </row>
     <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="55"/>
-      <c r="C10" s="56">
+      <c r="B10" s="46"/>
+      <c r="C10" s="47">
         <f>15*8760</f>
         <v>131400</v>
       </c>
-      <c r="D10" s="57"/>
-      <c r="E10" s="58"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="49"/>
       <c r="G10" s="28" t="s">
         <v>18</v>
       </c>
@@ -2269,15 +2306,15 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="55"/>
-      <c r="C11" s="56">
+      <c r="B11" s="46"/>
+      <c r="C11" s="47">
         <v>0.5</v>
       </c>
-      <c r="D11" s="57"/>
-      <c r="E11" s="58"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="49"/>
       <c r="G11" s="34">
         <v>1</v>
       </c>
@@ -2285,20 +2322,19 @@
         <v>5.2398E-9</v>
       </c>
       <c r="I11" s="35">
-        <f>1/(2*8760)</f>
-        <v>5.7077625570776254E-5</v>
+        <v>5.9523809523809521E-3</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="55"/>
-      <c r="C12" s="56" t="s">
+      <c r="B12" s="46"/>
+      <c r="C12" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="57"/>
-      <c r="E12" s="58"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="49"/>
       <c r="G12" s="36">
         <v>2</v>
       </c>
@@ -2311,15 +2347,15 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="44" t="s">
+      <c r="A13" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="45"/>
-      <c r="C13" s="41">
+      <c r="B13" s="61"/>
+      <c r="C13" s="57">
         <v>3</v>
       </c>
-      <c r="D13" s="42"/>
-      <c r="E13" s="43"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="59"/>
       <c r="G13" s="27">
         <v>3</v>
       </c>
@@ -2332,43 +2368,354 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="40"/>
-      <c r="C14" s="41">
+      <c r="B14" s="56"/>
+      <c r="C14" s="57">
         <v>0</v>
       </c>
-      <c r="D14" s="42"/>
-      <c r="E14" s="43"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="59"/>
     </row>
     <row r="15" spans="1:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="40"/>
-      <c r="C15" s="41">
-        <v>1</v>
-      </c>
-      <c r="D15" s="42"/>
-      <c r="E15" s="43"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="57">
+        <v>1</v>
+      </c>
+      <c r="D15" s="58"/>
+      <c r="E15" s="59"/>
       <c r="H15" s="17"/>
     </row>
     <row r="16" spans="1:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H16" s="17"/>
     </row>
     <row r="17" spans="1:9" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="46" t="s">
+      <c r="A17" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="70"/>
-      <c r="C17" s="70"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="70"/>
-      <c r="I17" s="71"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="66"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="D4:D8"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="A17:I17"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17" style="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="21.28515625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="73"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="14">
+        <v>4</v>
+      </c>
+      <c r="E3" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+    </row>
+    <row r="4" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="15">
+        <v>1</v>
+      </c>
+      <c r="D4" s="67" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="9">
+        <v>1</v>
+      </c>
+      <c r="G4" s="9">
+        <v>2</v>
+      </c>
+      <c r="H4" s="9">
+        <v>3</v>
+      </c>
+      <c r="I4" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="15">
+        <v>1</v>
+      </c>
+      <c r="D5" s="68"/>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="70"/>
+      <c r="B6" s="15">
+        <v>2</v>
+      </c>
+      <c r="D6" s="68"/>
+      <c r="E6" s="2">
+        <v>2</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="70"/>
+      <c r="B7" s="15"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="2">
+        <v>3</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="71"/>
+      <c r="B8" s="16"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="2">
+        <v>4</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="46"/>
+      <c r="C10" s="47">
+        <f>15*8760</f>
+        <v>131400</v>
+      </c>
+      <c r="D10" s="48"/>
+      <c r="E10" s="49"/>
+      <c r="G10" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="46"/>
+      <c r="C11" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="D11" s="48"/>
+      <c r="E11" s="49"/>
+      <c r="G11" s="34">
+        <v>1</v>
+      </c>
+      <c r="H11" s="33">
+        <v>5.2398E-9</v>
+      </c>
+      <c r="I11" s="35">
+        <v>5.9523809523809521E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="46"/>
+      <c r="C12" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="48"/>
+      <c r="E12" s="49"/>
+      <c r="G12" s="36">
+        <v>2</v>
+      </c>
+      <c r="H12" s="37">
+        <v>6.0000299999999995E-7</v>
+      </c>
+      <c r="I12" s="38">
+        <f>1/(24*7)</f>
+        <v>5.9523809523809521E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="61"/>
+      <c r="C13" s="57">
+        <v>3</v>
+      </c>
+      <c r="D13" s="58"/>
+      <c r="E13" s="59"/>
+      <c r="G13" s="27">
+        <v>3</v>
+      </c>
+      <c r="H13" s="25">
+        <v>9.1576800000000016E-8</v>
+      </c>
+      <c r="I13" s="26">
+        <f>1/(8760)</f>
+        <v>1.1415525114155251E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="56"/>
+      <c r="C14" s="57">
+        <v>0</v>
+      </c>
+      <c r="D14" s="58"/>
+      <c r="E14" s="59"/>
+    </row>
+    <row r="15" spans="1:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="56"/>
+      <c r="C15" s="57">
+        <v>1</v>
+      </c>
+      <c r="D15" s="58"/>
+      <c r="E15" s="59"/>
+      <c r="H15" s="17"/>
+    </row>
+    <row r="16" spans="1:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H16" s="17"/>
+    </row>
+    <row r="17" spans="1:9" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="62" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="65"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -2377,13 +2724,13 @@
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="C15:E15"/>
     <mergeCell ref="A17:I17"/>
-    <mergeCell ref="A1:J1"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="C12:E12"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="C13:E13"/>
+    <mergeCell ref="A1:J1"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="D4:D8"/>
     <mergeCell ref="A5:A8"/>

--- a/EC1-ECG_Analysis/ecg_oversampling/safetyArtist/Quantitative Models/Random Faults (HW)/Markov Models.xlsx
+++ b/EC1-ECG_Analysis/ecg_oversampling/safetyArtist/Quantitative Models/Random Faults (HW)/Markov Models.xlsx
@@ -1,18 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Antonio\Documents\safetyartist GitHub\EC1-ECG_Analysis\ecg_oversampling\safetyArtist\Quantitative Models\Random Faults (HW)\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3825" yWindow="-75" windowWidth="18195" windowHeight="11310" activeTab="3"/>
+    <workbookView xWindow="3825" yWindow="-75" windowWidth="18195" windowHeight="11310" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sample Spreadsheet" sheetId="1" r:id="rId1"/>
     <sheet name="EC1 - 15 years" sheetId="41" r:id="rId2"/>
     <sheet name="EC1 - 15 yr. w. Prev. Maint. 2y" sheetId="46" r:id="rId3"/>
     <sheet name="EC1 - 15 yr. w. Prev. Maint. 1y" sheetId="47" r:id="rId4"/>
+    <sheet name="EC1 - 15 yr. w. Prev. Maint 6m" sheetId="48" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -22,7 +28,7 @@
     <author>Antonio Vieira da Silva Neto</author>
   </authors>
   <commentList>
-    <comment ref="A18" authorId="0">
+    <comment ref="A18" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -58,7 +64,7 @@
     <author>Antonio Vieira da Silva Neto</author>
   </authors>
   <commentList>
-    <comment ref="A15" authorId="0">
+    <comment ref="A15" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -94,7 +100,7 @@
     <author>Antonio Vieira da Silva Neto</author>
   </authors>
   <commentList>
-    <comment ref="A15" authorId="0">
+    <comment ref="A15" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -130,7 +136,43 @@
     <author>Antonio Vieira da Silva Neto</author>
   </authors>
   <commentList>
-    <comment ref="A15" authorId="0">
+    <comment ref="A15" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Antonio Vieira da Silva Neto:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+0 - Optimistic
+1 - Normal
+2 - Pessimistic</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Antonio Vieira da Silva Neto</author>
+  </authors>
+  <commentList>
+    <comment ref="A15" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -161,7 +203,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="35">
   <si>
     <t>,</t>
   </si>
@@ -224,9 +266,6 @@
   </si>
   <si>
     <t>Repair Rate (ri)</t>
-  </si>
-  <si>
-    <t>Input Parameters Spreadsheet - EC1 Safety Model with 15 Years of Operation</t>
   </si>
   <si>
     <t>Hours</t>
@@ -272,9 +311,6 @@
     <t>1 - f1 - f2 - f3</t>
   </si>
   <si>
-    <t>Input Parameters Spreadsheet - EC1 Safety Model with 15 Years of Operation and 2-Year Preventive Maintenance</t>
-  </si>
-  <si>
     <t>Minutes / Hours / Years</t>
   </si>
   <si>
@@ -294,6 +330,18 @@
   </si>
   <si>
     <t>1 - r3</t>
+  </si>
+  <si>
+    <t>Input Parameters Spreadsheet - EC1 Random Faults Safety Model with 2-Year Preventive Maintenance</t>
+  </si>
+  <si>
+    <t>Input Parameters Spreadsheet - EC1 Random Faults Safety Model without Preventive Maintenance</t>
+  </si>
+  <si>
+    <t>Input Parameters Spreadsheet - EC1 Random Faults Safety Model with 1-Year Preventive Maintenance</t>
+  </si>
+  <si>
+    <t>Input Parameters Spreadsheet - EC1 Random Faults Safety Model with 6-Month Preventive Maintenance</t>
   </si>
 </sst>
 </file>
@@ -1004,6 +1052,36 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1024,10 +1102,6 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1067,57 +1141,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1138,6 +1186,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1186,7 +1237,7 @@
     </a:clrScheme>
     <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1221,7 +1272,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1453,21 +1504,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="41"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="51"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:13" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1475,23 +1526,23 @@
         <v>7</v>
       </c>
       <c r="B3" s="14"/>
-      <c r="E3" s="53" t="s">
+      <c r="E3" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="55"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="64"/>
     </row>
     <row r="4" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="15"/>
-      <c r="D4" s="50" t="s">
+      <c r="D4" s="59" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="8" t="s">
@@ -1520,11 +1571,11 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="52" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="15"/>
-      <c r="D5" s="51"/>
+      <c r="D5" s="60"/>
       <c r="E5" s="2">
         <v>1</v>
       </c>
@@ -1540,9 +1591,9 @@
       <c r="L5" s="6"/>
     </row>
     <row r="6" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="43"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="15"/>
-      <c r="D6" s="51"/>
+      <c r="D6" s="60"/>
       <c r="E6" s="2">
         <v>2</v>
       </c>
@@ -1558,9 +1609,9 @@
       <c r="L6" s="6"/>
     </row>
     <row r="7" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="43"/>
+      <c r="A7" s="53"/>
       <c r="B7" s="15"/>
-      <c r="D7" s="51"/>
+      <c r="D7" s="60"/>
       <c r="E7" s="2">
         <v>3</v>
       </c>
@@ -1576,9 +1627,9 @@
       <c r="L7" s="6"/>
     </row>
     <row r="8" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="43"/>
+      <c r="A8" s="53"/>
       <c r="B8" s="15"/>
-      <c r="D8" s="51"/>
+      <c r="D8" s="60"/>
       <c r="E8" s="2">
         <v>4</v>
       </c>
@@ -1594,9 +1645,9 @@
       <c r="L8" s="6"/>
     </row>
     <row r="9" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="43"/>
+      <c r="A9" s="53"/>
       <c r="B9" s="15"/>
-      <c r="D9" s="51"/>
+      <c r="D9" s="60"/>
       <c r="E9" s="2">
         <v>5</v>
       </c>
@@ -1612,9 +1663,9 @@
       <c r="L9" s="6"/>
     </row>
     <row r="10" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="43"/>
+      <c r="A10" s="53"/>
       <c r="B10" s="15"/>
-      <c r="D10" s="51"/>
+      <c r="D10" s="60"/>
       <c r="E10" s="2">
         <v>6</v>
       </c>
@@ -1630,9 +1681,9 @@
       <c r="L10" s="6"/>
     </row>
     <row r="11" spans="1:13" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="44"/>
+      <c r="A11" s="54"/>
       <c r="B11" s="16"/>
-      <c r="D11" s="52"/>
+      <c r="D11" s="61"/>
       <c r="E11" s="3">
         <v>7</v>
       </c>
@@ -1649,13 +1700,13 @@
     </row>
     <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:13" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="45" t="s">
+      <c r="A13" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="46"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="49"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="58"/>
       <c r="G13" s="28" t="s">
         <v>18</v>
       </c>
@@ -1667,13 +1718,13 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="46"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="49"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="58"/>
       <c r="G14" s="24">
         <v>1</v>
       </c>
@@ -1681,15 +1732,15 @@
       <c r="I14" s="19"/>
     </row>
     <row r="15" spans="1:13" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="46"/>
-      <c r="C15" s="47" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="48"/>
-      <c r="E15" s="49"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="57"/>
+      <c r="E15" s="58"/>
       <c r="G15" s="24">
         <v>2</v>
       </c>
@@ -1697,13 +1748,13 @@
       <c r="I15" s="19"/>
     </row>
     <row r="16" spans="1:13" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="60" t="s">
+      <c r="A16" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="61"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="59"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="43"/>
       <c r="G16" s="24" t="s">
         <v>1</v>
       </c>
@@ -1711,13 +1762,13 @@
       <c r="I16" s="31"/>
     </row>
     <row r="17" spans="1:12" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="56"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="59"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="43"/>
       <c r="G17" s="24" t="s">
         <v>2</v>
       </c>
@@ -1725,13 +1776,13 @@
       <c r="I17" s="31"/>
     </row>
     <row r="18" spans="1:12" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="56"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="59"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="43"/>
       <c r="H18" s="17"/>
     </row>
     <row r="19" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1742,19 +1793,19 @@
       <c r="E19" s="22"/>
     </row>
     <row r="20" spans="1:12" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="62" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="63"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="63"/>
-      <c r="K20" s="64"/>
+      <c r="A20" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="47"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="48"/>
       <c r="L20" s="23"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -1784,13 +1835,6 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="17">
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="A20:K20"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:E17"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A5:A11"/>
     <mergeCell ref="A14:B14"/>
@@ -1801,6 +1845,13 @@
     <mergeCell ref="C13:E13"/>
     <mergeCell ref="D4:D11"/>
     <mergeCell ref="E3:L3"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="A20:K20"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:E17"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1816,7 +1867,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1834,17 +1885,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="41"/>
+      <c r="A1" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="51"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:9" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1854,12 +1905,12 @@
       <c r="B3" s="14">
         <v>4</v>
       </c>
-      <c r="E3" s="53" t="s">
+      <c r="E3" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
     </row>
     <row r="4" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
@@ -1868,7 +1919,7 @@
       <c r="B4" s="15">
         <v>1</v>
       </c>
-      <c r="D4" s="67" t="s">
+      <c r="D4" s="65" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="8" t="s">
@@ -1888,18 +1939,18 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="70" t="s">
+      <c r="A5" s="68" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="15">
         <v>1</v>
       </c>
-      <c r="D5" s="68"/>
+      <c r="D5" s="66"/>
       <c r="E5" s="2">
         <v>1</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>3</v>
@@ -1912,11 +1963,11 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="70"/>
+      <c r="A6" s="68"/>
       <c r="B6" s="15">
         <v>2</v>
       </c>
-      <c r="D6" s="68"/>
+      <c r="D6" s="66"/>
       <c r="E6" s="2">
         <v>2</v>
       </c>
@@ -1934,29 +1985,29 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="70"/>
+      <c r="A7" s="68"/>
       <c r="B7" s="15"/>
-      <c r="D7" s="68"/>
+      <c r="D7" s="66"/>
       <c r="E7" s="2">
         <v>3</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G7" s="5">
         <v>0</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I7" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="71"/>
+      <c r="A8" s="69"/>
       <c r="B8" s="16"/>
-      <c r="D8" s="69"/>
+      <c r="D8" s="67"/>
       <c r="E8" s="2">
         <v>4</v>
       </c>
@@ -1975,16 +2026,15 @@
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:9" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="46"/>
-      <c r="C10" s="47">
-        <f>15*8760</f>
-        <v>131400</v>
-      </c>
-      <c r="D10" s="48"/>
-      <c r="E10" s="49"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="56">
+        <v>876000000</v>
+      </c>
+      <c r="D10" s="57"/>
+      <c r="E10" s="58"/>
       <c r="G10" s="28" t="s">
         <v>18</v>
       </c>
@@ -1996,15 +2046,15 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="46"/>
-      <c r="C11" s="47">
-        <v>0.5</v>
-      </c>
-      <c r="D11" s="48"/>
-      <c r="E11" s="49"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="56">
+        <v>10</v>
+      </c>
+      <c r="D11" s="57"/>
+      <c r="E11" s="58"/>
       <c r="G11" s="34">
         <v>1</v>
       </c>
@@ -2016,15 +2066,15 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="46"/>
-      <c r="C12" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="48"/>
-      <c r="E12" s="49"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="57"/>
+      <c r="E12" s="58"/>
       <c r="G12" s="36">
         <v>2</v>
       </c>
@@ -2037,15 +2087,15 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="60" t="s">
+      <c r="A13" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="61"/>
-      <c r="C13" s="57">
+      <c r="B13" s="45"/>
+      <c r="C13" s="41">
         <v>3</v>
       </c>
-      <c r="D13" s="58"/>
-      <c r="E13" s="59"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="43"/>
       <c r="G13" s="27">
         <v>3</v>
       </c>
@@ -2057,52 +2107,672 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="56"/>
-      <c r="C14" s="57">
-        <v>0</v>
-      </c>
-      <c r="D14" s="58"/>
-      <c r="E14" s="59"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="41">
+        <v>0</v>
+      </c>
+      <c r="D14" s="42"/>
+      <c r="E14" s="43"/>
     </row>
     <row r="15" spans="1:9" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="56"/>
-      <c r="C15" s="57">
-        <v>1</v>
-      </c>
-      <c r="D15" s="58"/>
-      <c r="E15" s="59"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="41">
+        <v>1</v>
+      </c>
+      <c r="D15" s="42"/>
+      <c r="E15" s="43"/>
       <c r="H15" s="17"/>
     </row>
     <row r="16" spans="1:9" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H16" s="17"/>
     </row>
     <row r="17" spans="1:9" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="62" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="65"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="65"/>
-      <c r="H17" s="65"/>
-      <c r="I17" s="66"/>
+      <c r="A17" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="70"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
+      <c r="I17" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:E13"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="D4:D8"/>
     <mergeCell ref="A5:A8"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17" style="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="21.28515625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="73"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="14">
+        <v>4</v>
+      </c>
+      <c r="E3" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+    </row>
+    <row r="4" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="15">
+        <v>1</v>
+      </c>
+      <c r="D4" s="65" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="9">
+        <v>1</v>
+      </c>
+      <c r="G4" s="9">
+        <v>2</v>
+      </c>
+      <c r="H4" s="9">
+        <v>3</v>
+      </c>
+      <c r="I4" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="68" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="15">
+        <v>1</v>
+      </c>
+      <c r="D5" s="66"/>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="68"/>
+      <c r="B6" s="15">
+        <v>2</v>
+      </c>
+      <c r="D6" s="66"/>
+      <c r="E6" s="2">
+        <v>2</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="68"/>
+      <c r="B7" s="15"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="2">
+        <v>3</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="69"/>
+      <c r="B8" s="16"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="2">
+        <v>4</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="55"/>
+      <c r="C10" s="56">
+        <v>876000000</v>
+      </c>
+      <c r="D10" s="57"/>
+      <c r="E10" s="58"/>
+      <c r="G10" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="55"/>
+      <c r="C11" s="56">
+        <v>10</v>
+      </c>
+      <c r="D11" s="57"/>
+      <c r="E11" s="58"/>
+      <c r="G11" s="34">
+        <v>1</v>
+      </c>
+      <c r="H11" s="33">
+        <v>5.2398E-9</v>
+      </c>
+      <c r="I11" s="35">
+        <v>5.9523809523809521E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="55"/>
+      <c r="C12" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="57"/>
+      <c r="E12" s="58"/>
+      <c r="G12" s="36">
+        <v>2</v>
+      </c>
+      <c r="H12" s="37">
+        <v>6.0000299999999995E-7</v>
+      </c>
+      <c r="I12" s="38">
+        <f>1/(24*7)</f>
+        <v>5.9523809523809521E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="45"/>
+      <c r="C13" s="41">
+        <v>3</v>
+      </c>
+      <c r="D13" s="42"/>
+      <c r="E13" s="43"/>
+      <c r="G13" s="27">
+        <v>3</v>
+      </c>
+      <c r="H13" s="25">
+        <v>9.1576800000000016E-8</v>
+      </c>
+      <c r="I13" s="26">
+        <f>1/(2*8760)</f>
+        <v>5.7077625570776254E-5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="40"/>
+      <c r="C14" s="41">
+        <v>0</v>
+      </c>
+      <c r="D14" s="42"/>
+      <c r="E14" s="43"/>
+    </row>
+    <row r="15" spans="1:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="40"/>
+      <c r="C15" s="41">
+        <v>1</v>
+      </c>
+      <c r="D15" s="42"/>
+      <c r="E15" s="43"/>
+      <c r="H15" s="17"/>
+    </row>
+    <row r="16" spans="1:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H16" s="17"/>
+    </row>
+    <row r="17" spans="1:9" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="70"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
+      <c r="I17" s="71"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="D4:D8"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:E10"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17" style="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="21.28515625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="73"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="14">
+        <v>4</v>
+      </c>
+      <c r="E3" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+    </row>
+    <row r="4" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="15">
+        <v>1</v>
+      </c>
+      <c r="D4" s="65" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="9">
+        <v>1</v>
+      </c>
+      <c r="G4" s="9">
+        <v>2</v>
+      </c>
+      <c r="H4" s="9">
+        <v>3</v>
+      </c>
+      <c r="I4" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="68" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="15">
+        <v>1</v>
+      </c>
+      <c r="D5" s="66"/>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="68"/>
+      <c r="B6" s="15">
+        <v>2</v>
+      </c>
+      <c r="D6" s="66"/>
+      <c r="E6" s="2">
+        <v>2</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="68"/>
+      <c r="B7" s="15"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="2">
+        <v>3</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="69"/>
+      <c r="B8" s="16"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="2">
+        <v>4</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="55"/>
+      <c r="C10" s="56">
+        <v>876000000</v>
+      </c>
+      <c r="D10" s="57"/>
+      <c r="E10" s="58"/>
+      <c r="G10" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="55"/>
+      <c r="C11" s="56">
+        <v>10</v>
+      </c>
+      <c r="D11" s="57"/>
+      <c r="E11" s="58"/>
+      <c r="G11" s="34">
+        <v>1</v>
+      </c>
+      <c r="H11" s="33">
+        <v>5.2398E-9</v>
+      </c>
+      <c r="I11" s="35">
+        <v>5.9523809523809521E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="55"/>
+      <c r="C12" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="57"/>
+      <c r="E12" s="58"/>
+      <c r="G12" s="36">
+        <v>2</v>
+      </c>
+      <c r="H12" s="37">
+        <v>6.0000299999999995E-7</v>
+      </c>
+      <c r="I12" s="38">
+        <f>1/(24*7)</f>
+        <v>5.9523809523809521E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="45"/>
+      <c r="C13" s="41">
+        <v>3</v>
+      </c>
+      <c r="D13" s="42"/>
+      <c r="E13" s="43"/>
+      <c r="G13" s="27">
+        <v>3</v>
+      </c>
+      <c r="H13" s="25">
+        <v>9.1576800000000016E-8</v>
+      </c>
+      <c r="I13" s="26">
+        <f>1/(8760)</f>
+        <v>1.1415525114155251E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="40"/>
+      <c r="C14" s="41">
+        <v>0</v>
+      </c>
+      <c r="D14" s="42"/>
+      <c r="E14" s="43"/>
+    </row>
+    <row r="15" spans="1:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="40"/>
+      <c r="C15" s="41">
+        <v>1</v>
+      </c>
+      <c r="D15" s="42"/>
+      <c r="E15" s="43"/>
+      <c r="H15" s="17"/>
+    </row>
+    <row r="16" spans="1:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H16" s="17"/>
+    </row>
+    <row r="17" spans="1:9" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="70"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
+      <c r="I17" s="71"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="D4:D8"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:E10"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="A12:B12"/>
@@ -2120,12 +2790,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2143,8 +2813,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
-        <v>25</v>
+      <c r="A1" s="49" t="s">
+        <v>34</v>
       </c>
       <c r="B1" s="72"/>
       <c r="C1" s="72"/>
@@ -2164,12 +2834,12 @@
       <c r="B3" s="14">
         <v>4</v>
       </c>
-      <c r="E3" s="53" t="s">
+      <c r="E3" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
     </row>
     <row r="4" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
@@ -2178,7 +2848,7 @@
       <c r="B4" s="15">
         <v>1</v>
       </c>
-      <c r="D4" s="67" t="s">
+      <c r="D4" s="65" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="8" t="s">
@@ -2198,18 +2868,18 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="70" t="s">
+      <c r="A5" s="68" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="15">
         <v>1</v>
       </c>
-      <c r="D5" s="68"/>
+      <c r="D5" s="66"/>
       <c r="E5" s="2">
         <v>1</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>3</v>
@@ -2222,19 +2892,19 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="70"/>
+      <c r="A6" s="68"/>
       <c r="B6" s="15">
         <v>2</v>
       </c>
-      <c r="D6" s="68"/>
+      <c r="D6" s="66"/>
       <c r="E6" s="2">
         <v>2</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="5">
         <v>0</v>
@@ -2244,34 +2914,34 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="70"/>
+      <c r="A7" s="68"/>
       <c r="B7" s="15"/>
-      <c r="D7" s="68"/>
+      <c r="D7" s="66"/>
       <c r="E7" s="2">
         <v>3</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G7" s="5">
         <v>0</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I7" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="71"/>
+      <c r="A8" s="69"/>
       <c r="B8" s="16"/>
-      <c r="D8" s="69"/>
+      <c r="D8" s="67"/>
       <c r="E8" s="2">
         <v>4</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G8" s="5">
         <v>0</v>
@@ -2280,21 +2950,20 @@
         <v>0</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="46"/>
-      <c r="C10" s="47">
-        <f>15*8760</f>
-        <v>131400</v>
-      </c>
-      <c r="D10" s="48"/>
-      <c r="E10" s="49"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="56">
+        <v>876000000</v>
+      </c>
+      <c r="D10" s="57"/>
+      <c r="E10" s="58"/>
       <c r="G10" s="28" t="s">
         <v>18</v>
       </c>
@@ -2306,15 +2975,15 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="46"/>
-      <c r="C11" s="47">
-        <v>0.5</v>
-      </c>
-      <c r="D11" s="48"/>
-      <c r="E11" s="49"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="56">
+        <v>10</v>
+      </c>
+      <c r="D11" s="57"/>
+      <c r="E11" s="58"/>
       <c r="G11" s="34">
         <v>1</v>
       </c>
@@ -2326,15 +2995,15 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="46"/>
-      <c r="C12" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="48"/>
-      <c r="E12" s="49"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="57"/>
+      <c r="E12" s="58"/>
       <c r="G12" s="36">
         <v>2</v>
       </c>
@@ -2347,15 +3016,15 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="60" t="s">
+      <c r="A13" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="61"/>
-      <c r="C13" s="57">
+      <c r="B13" s="45"/>
+      <c r="C13" s="41">
         <v>3</v>
       </c>
-      <c r="D13" s="58"/>
-      <c r="E13" s="59"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="43"/>
       <c r="G13" s="27">
         <v>3</v>
       </c>
@@ -2363,359 +3032,48 @@
         <v>9.1576800000000016E-8</v>
       </c>
       <c r="I13" s="26">
-        <f>1/(2*8760)</f>
-        <v>5.7077625570776254E-5</v>
+        <f>2/(8760)</f>
+        <v>2.2831050228310502E-4</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="56"/>
-      <c r="C14" s="57">
-        <v>0</v>
-      </c>
-      <c r="D14" s="58"/>
-      <c r="E14" s="59"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="41">
+        <v>0</v>
+      </c>
+      <c r="D14" s="42"/>
+      <c r="E14" s="43"/>
     </row>
     <row r="15" spans="1:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="56"/>
-      <c r="C15" s="57">
-        <v>1</v>
-      </c>
-      <c r="D15" s="58"/>
-      <c r="E15" s="59"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="41">
+        <v>1</v>
+      </c>
+      <c r="D15" s="42"/>
+      <c r="E15" s="43"/>
       <c r="H15" s="17"/>
     </row>
     <row r="16" spans="1:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H16" s="17"/>
     </row>
     <row r="17" spans="1:9" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="62" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="65"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="65"/>
-      <c r="H17" s="65"/>
-      <c r="I17" s="66"/>
-    </row>
-  </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="D4:D8"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="A17:I17"/>
-  </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J17"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17" style="1" customWidth="1"/>
-    <col min="8" max="8" width="19.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="21.28515625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="73"/>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="14">
-        <v>4</v>
-      </c>
-      <c r="E3" s="53" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-    </row>
-    <row r="4" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="15">
-        <v>1</v>
-      </c>
-      <c r="D4" s="67" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="9">
-        <v>1</v>
-      </c>
-      <c r="G4" s="9">
-        <v>2</v>
-      </c>
-      <c r="H4" s="9">
-        <v>3</v>
-      </c>
-      <c r="I4" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="70" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="15">
-        <v>1</v>
-      </c>
-      <c r="D5" s="68"/>
-      <c r="E5" s="2">
-        <v>1</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="70"/>
-      <c r="B6" s="15">
-        <v>2</v>
-      </c>
-      <c r="D6" s="68"/>
-      <c r="E6" s="2">
-        <v>2</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="5">
-        <v>0</v>
-      </c>
-      <c r="I6" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="70"/>
-      <c r="B7" s="15"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="2">
-        <v>3</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="5">
-        <v>0</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I7" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="71"/>
-      <c r="B8" s="16"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="2">
-        <v>4</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="5">
-        <v>0</v>
-      </c>
-      <c r="H8" s="4">
-        <v>0</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="46"/>
-      <c r="C10" s="47">
-        <f>15*8760</f>
-        <v>131400</v>
-      </c>
-      <c r="D10" s="48"/>
-      <c r="E10" s="49"/>
-      <c r="G10" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="I10" s="30" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="46"/>
-      <c r="C11" s="47">
-        <v>0.5</v>
-      </c>
-      <c r="D11" s="48"/>
-      <c r="E11" s="49"/>
-      <c r="G11" s="34">
-        <v>1</v>
-      </c>
-      <c r="H11" s="33">
-        <v>5.2398E-9</v>
-      </c>
-      <c r="I11" s="35">
-        <v>5.9523809523809521E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="46"/>
-      <c r="C12" s="47" t="s">
+      <c r="A17" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="48"/>
-      <c r="E12" s="49"/>
-      <c r="G12" s="36">
-        <v>2</v>
-      </c>
-      <c r="H12" s="37">
-        <v>6.0000299999999995E-7</v>
-      </c>
-      <c r="I12" s="38">
-        <f>1/(24*7)</f>
-        <v>5.9523809523809521E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="60" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="61"/>
-      <c r="C13" s="57">
-        <v>3</v>
-      </c>
-      <c r="D13" s="58"/>
-      <c r="E13" s="59"/>
-      <c r="G13" s="27">
-        <v>3</v>
-      </c>
-      <c r="H13" s="25">
-        <v>9.1576800000000016E-8</v>
-      </c>
-      <c r="I13" s="26">
-        <f>1/(8760)</f>
-        <v>1.1415525114155251E-4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="45" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="56"/>
-      <c r="C14" s="57">
-        <v>0</v>
-      </c>
-      <c r="D14" s="58"/>
-      <c r="E14" s="59"/>
-    </row>
-    <row r="15" spans="1:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="45" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="56"/>
-      <c r="C15" s="57">
-        <v>1</v>
-      </c>
-      <c r="D15" s="58"/>
-      <c r="E15" s="59"/>
-      <c r="H15" s="17"/>
-    </row>
-    <row r="16" spans="1:10" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H16" s="17"/>
-    </row>
-    <row r="17" spans="1:9" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="62" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="65"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="65"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="65"/>
-      <c r="H17" s="65"/>
-      <c r="I17" s="66"/>
+      <c r="B17" s="70"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
+      <c r="I17" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="17">
